--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296594.828788429</v>
+        <v>1316012.299633144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248444</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6811878.520806344</v>
+        <v>6922151.423829047</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>368.7996543702905</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>41.13782684532274</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>13.8523599663048</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>102.4718771365686</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,16 +905,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>86.24780263610505</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.70687650902241</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>106.6943663644388</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,16 +1291,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.4380635245689</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.5504749248108</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225256</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791328822</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>216.0237438655884</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>148.6041873872575</v>
+        <v>117.8862381513848</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>338.1812735516055</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>104.6990987647614</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>10.04027365719963</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513587</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3086,7 +3086,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225709</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3326,7 +3326,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317968</v>
       </c>
       <c r="C37" t="n">
-        <v>122.9229677259532</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>20.7369698920924</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>214.8227558384083</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>311.6035184023955</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3907,16 +3907,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>57.1738008234244</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3980,10 +3980,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>381.4061090983705</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.3709995376076</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>155.1461723647464</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.14448398095</v>
+        <v>557.9336779278854</v>
       </c>
       <c r="C2" t="n">
-        <v>919.6195805766158</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D2" t="n">
-        <v>887.7501997914644</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>584.4385640323317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.403650425453</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1593.676483477823</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1593.676483477823</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1321.650079064114</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.258324397527</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>924.2019448202039</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>890.0998760440314</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>858.23049525888</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>828.4961544575792</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1773.889698385744</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1354.747234965054</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>946.4611112647077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>1125.382998490198</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>952.8212869734228</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>786.9432941749455</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>617.1852904256828</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>440.478236387439</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>274.8869614132666</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>134.9847871036412</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>884.4397056785397</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="W7" t="n">
-        <v>884.4397056785397</v>
+        <v>1544.621287895077</v>
       </c>
       <c r="X7" t="n">
-        <v>884.4397056785397</v>
+        <v>1544.621287895077</v>
       </c>
       <c r="Y7" t="n">
-        <v>884.4397056785397</v>
+        <v>1317.201617209185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.1384727187784</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>614.3767621236573</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.9570914377655</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.0139701848939</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>697.4522586681187</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681187</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.694254918856</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806122</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230866</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004249</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436411</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>421.2943016473275</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.027821717705</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.027821717705</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.027821717705</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.027821717705</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.027821717705</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>976.6306115230864</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C16" t="n">
-        <v>826.5253717379777</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>660.6473789395004</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>490.8893751902377</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997525</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706257</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276563</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109959</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068554</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068554</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941593</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258609</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192436</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603469</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.26302318278</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482433</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1129.938866618418</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.981559807928</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>916.4198482911526</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>750.5418554926753</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434125</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051689</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309966</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2609.48629290522</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2363.606846483675</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2085.17384573678</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1798.218337607211</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1526.191933193502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.800178526915</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.800178526915</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,37 +5999,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937637</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937637</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952864</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>454.7008598460237</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>277.9938058077799</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>112.4025308336075</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>112.4025308336075</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,19 +6230,19 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731398</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238771</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,28 +6710,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
         <v>4187.483659846699</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,22 +6941,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176684</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6974,13 +6974,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937636</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>666.1722425291648</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7132,13 +7132,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644501</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127508</v>
+        <v>1233.235445292022</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,16 +7172,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915883</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>3212.183885122483</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4192.363551692789</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5020.673426526186</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1060.515889067216</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>887.9541775504412</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>722.0761847519639</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>552.3181810027012</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1725.145933138683</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1479.754178472095</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1252.334507786203</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295529</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478952</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556612</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490439</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901472</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480783</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780436</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>863.330251466596</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C46" t="n">
-        <v>863.330251466596</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D46" t="n">
-        <v>697.4522586681187</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E46" t="n">
-        <v>527.694254918856</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9872008806122</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064399</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881912</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583903</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503607</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177148</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,11 +8058,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>353.221552644422</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504349</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9878,22 +9878,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>465.5893289127825</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>774.8540110383883</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.34995760698644</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627307</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>184.7831561774886</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>22.23190701434984</v>
+        <v>52.9498562502225</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>95.57977453680542</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>52.94985625022193</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>77.73307607587178</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.91312667565414</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>248.569170477479</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>54.48338453116313</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>89.20338164068147</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>50.14457787892946</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.52943299418962</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>114.159968004825</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>558397.1266586974</v>
+        <v>575306.8898897312</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>558397.1266586974</v>
+        <v>578351.5299509652</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>583405.319228929</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>583405.319228929</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591637.7356748886</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599793.2739222056</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583405.3192289291</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.865456011</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26347,13 +26347,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="O2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="O2" t="n">
-        <v>415779.3202312122</v>
-      </c>
       <c r="P2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909368</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742197</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26454,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312484</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>9076.50108282554</v>
       </c>
       <c r="C6" t="n">
-        <v>151267.8017425354</v>
+        <v>102409.374418371</v>
       </c>
       <c r="D6" t="n">
-        <v>151267.8017425354</v>
+        <v>160661.7535272588</v>
       </c>
       <c r="E6" t="n">
-        <v>-7386.544199348951</v>
+        <v>53072.17731519404</v>
       </c>
       <c r="F6" t="n">
-        <v>226968.4778226885</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="G6" t="n">
-        <v>223475.4396386987</v>
+        <v>235427.2865362438</v>
       </c>
       <c r="H6" t="n">
-        <v>223047.7558956631</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="I6" t="n">
-        <v>235450.5108756265</v>
+        <v>235427.2865362438</v>
       </c>
       <c r="J6" t="n">
-        <v>124436.0455306363</v>
+        <v>124412.8211912536</v>
       </c>
       <c r="K6" t="n">
-        <v>235450.5108756265</v>
+        <v>182381.4318974712</v>
       </c>
       <c r="L6" t="n">
-        <v>235450.5108756266</v>
+        <v>226034.9848096217</v>
       </c>
       <c r="M6" t="n">
-        <v>39849.33159255871</v>
+        <v>83227.11559825615</v>
       </c>
       <c r="N6" t="n">
-        <v>235450.5108756265</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="O6" t="n">
-        <v>232614.3380167658</v>
+        <v>235427.2865362438</v>
       </c>
       <c r="P6" t="n">
-        <v>226968.4778226885</v>
+        <v>235427.2865362438</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>64.96139371812046</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>373.8132119411596</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>176.0480725654924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.1767936028571</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27625,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>337.3409526587793</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>4.066473224049005</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>177.391586683835</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136665</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-5.220349312471573e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.484585124055083e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.509577896290769e-13</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,11 +34778,11 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>353.221552644422</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35586,7 +35586,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821484</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504349</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36279,19 +36279,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36598,22 +36598,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>465.5893289127825</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N41" t="n">
-        <v>774.8540110383883</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
